--- a/TechnologieEval_COMPLETE.xlsx
+++ b/TechnologieEval_COMPLETE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasbarthold/Documents/University/SWT2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehsan\OneDrive\Desktop\SWT2\temp_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0810DD-0C65-1049-8A07-72B3D299FF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE65BA-11F2-4BFA-814B-1D78896B544E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="39980" windowHeight="27380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSO" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>Summe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,9 +152,6 @@
     <t>Eclipse Paho</t>
   </si>
   <si>
-    <t>mqtt (literally der Name des Packages)</t>
-  </si>
-  <si>
     <t>--</t>
   </si>
   <si>
@@ -261,6 +258,36 @@
   </si>
   <si>
     <t>10. Benutzerfreundlichkeit</t>
+  </si>
+  <si>
+    <t>Mqtt (literally der Name des Packages)</t>
+  </si>
+  <si>
+    <t>Mosquitto</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Faktor</t>
+  </si>
+  <si>
+    <t>Prozent</t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>Nutzwert</t>
+  </si>
+  <si>
+    <t>Bewerung</t>
+  </si>
+  <si>
+    <t>9.  Verfügbarkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Sicherheit </t>
   </si>
 </sst>
 </file>
@@ -746,7 +773,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,6 +920,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,30 +1303,30 @@
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
-    <col min="20" max="20" width="109.6640625" customWidth="1"/>
+    <col min="1" max="1" width="61.3515625" customWidth="1"/>
+    <col min="20" max="20" width="109.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N1" s="50" t="s">
+    <row r="1" spans="1:21" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="N1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="50" t="s">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="51"/>
+      <c r="S1" s="55"/>
       <c r="T1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="15" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="19">
         <v>1</v>
@@ -1343,7 +1384,7 @@
       </c>
       <c r="T2" s="34"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -1480,7 +1521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +1807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +1881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" s="1" customFormat="1" ht="43.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
@@ -1989,7 +2030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L12" s="25">
         <f>SUM(L3:L11)</f>
         <v>3.6</v>
@@ -2011,10 +2052,10 @@
         <v>8.35</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S14" s="29"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S16" s="29"/>
       <c r="U16" s="29"/>
     </row>
@@ -2039,23 +2080,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9FA007-54B4-494F-BEE3-F4C13DF055D0}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="O1" s="50" t="s">
+    <row r="1" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="53"/>
-    </row>
-    <row r="2" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="R1" s="57"/>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="19">
         <v>1</v>
@@ -2114,9 +2155,9 @@
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="21">
         <v>0</v>
@@ -2180,9 +2221,9 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="22">
         <f>ABS(C$3-2)</f>
@@ -2247,9 +2288,9 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="22">
         <f>ABS(D$3-2)</f>
@@ -2315,9 +2356,9 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="22">
         <f>ABS(E$3-2)</f>
@@ -2384,9 +2425,9 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="22">
         <f>ABS(F$3-2)</f>
@@ -2454,9 +2495,9 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="22">
         <f>ABS(G$3-2)</f>
@@ -2525,9 +2566,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="22">
         <f>ABS(H$3-2)</f>
@@ -2597,9 +2638,9 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="22">
         <f>ABS(I$3-2)</f>
@@ -2670,9 +2711,9 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="22">
         <f>ABS(J$3-2)</f>
@@ -2742,9 +2783,9 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="42">
         <f>ABS(K$3-2)</f>
@@ -2817,7 +2858,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M13" s="25">
         <f>SUM(M3:M12)</f>
         <v>4.5000000000000009</v>
@@ -2835,7 +2876,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="17" spans="20:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="20:22" x14ac:dyDescent="0.3">
       <c r="T17" s="29"/>
       <c r="V17" s="29"/>
     </row>
@@ -2852,34 +2893,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F05140-F31B-C141-A0B0-73362D73C418}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L18" sqref="A1:W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O1" s="50" t="s">
         <v>33</v>
       </c>
       <c r="P1" s="51"/>
       <c r="Q1" s="52" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="R1" s="53"/>
       <c r="S1" s="50" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V1" s="51"/>
     </row>
-    <row r="2" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="19">
         <v>1</v>
@@ -2912,43 +2953,43 @@
         <v>10</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="21">
         <v>0</v>
@@ -2975,59 +3016,51 @@
         <v>2</v>
       </c>
       <c r="J3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="40">
         <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>SUM(B3:K3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" s="12">
-        <f>L3/20</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="N3" s="13">
-        <f>M3*100</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="O3" s="14">
         <v>4</v>
       </c>
       <c r="P3" s="13">
-        <f>$O3*$M3</f>
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="14">
         <v>4</v>
       </c>
       <c r="R3" s="13">
-        <f>$Q3*$M3</f>
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="S3" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="13">
-        <f>$S3*$M3</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" s="14">
         <v>0</v>
       </c>
       <c r="V3" s="31">
-        <f>$U3*$M3</f>
         <v>0</v>
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="22">
-        <f>ABS(C$3-2)</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
@@ -3052,63 +3085,54 @@
         <v>1</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="41">
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L12" si="0">SUM(B4:K4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M12" si="1">L4/20</f>
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N12" si="2">M4*100</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O4" s="9">
         <v>4</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4:P12" si="3">$O4*$M4</f>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="9">
         <v>4</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" ref="R4:R12" si="4">$Q4*$M4</f>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="S4" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" ref="T4:T12" si="5">$S4*$M4</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U4" s="14">
         <v>0</v>
       </c>
       <c r="V4" s="32">
-        <f t="shared" ref="V4:V12" si="6">$U4*$M4</f>
         <v>0</v>
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="22">
-        <f>ABS(D$3-2)</f>
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <f>ABS(D$4-2)</f>
         <v>2</v>
       </c>
       <c r="D5" s="2">
@@ -3130,67 +3154,57 @@
         <v>1</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="41">
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="N5" s="6">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O5" s="9">
         <v>4</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" s="9">
         <v>3</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0499999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="S5" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U5" s="14">
         <v>0</v>
       </c>
       <c r="V5" s="32">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="22">
-        <f>ABS(E$3-2)</f>
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <f>ABS(E$4-2)</f>
         <v>1</v>
       </c>
       <c r="D6" s="4">
-        <f>ABS(E$5-2)</f>
         <v>1</v>
       </c>
       <c r="E6" s="2">
@@ -3209,71 +3223,60 @@
         <v>2</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="41">
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="N6" s="6">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="O6" s="9">
         <v>3</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.0499999999999998</v>
+        <v>1.35</v>
       </c>
       <c r="Q6" s="9">
         <v>4</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="S6" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U6" s="14">
         <v>0</v>
       </c>
       <c r="V6" s="32">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="22">
-        <f>ABS(F$3-2)</f>
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f>ABS(F$4-2)</f>
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>ABS(F$5-2)</f>
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <f>ABS(F$6-2)</f>
         <v>0</v>
       </c>
       <c r="F7" s="2">
@@ -3289,302 +3292,256 @@
         <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O7" s="9">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="S7" s="14">
+        <v>3</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="32">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="41">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N8" s="6">
+        <v>55</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>4</v>
+      </c>
+      <c r="R8" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S8" s="14">
+        <v>4</v>
+      </c>
+      <c r="T8" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="41">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>11</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N9" s="6">
+        <v>55</v>
+      </c>
+      <c r="O9" s="9">
+        <v>4</v>
+      </c>
+      <c r="P9" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S9" s="14">
+        <v>3</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="41">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
         <v>5</v>
       </c>
-      <c r="O7" s="9">
-        <v>4</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="14">
-        <v>0</v>
-      </c>
-      <c r="V7" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="22">
-        <f>ABS(G$3-2)</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <f>ABS(G$4-2)</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <f>ABS(G$5-2)</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <f>ABS(G$6-2)</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <f>ABS(G$7-2)</f>
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="M8" s="3">
-        <f t="shared" si="1"/>
+      <c r="M10" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="6">
+        <v>25</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>2</v>
+      </c>
+      <c r="R10" s="6">
         <v>0.5</v>
       </c>
-      <c r="N8" s="6">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="O8" s="9">
-        <v>2</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>4</v>
-      </c>
-      <c r="R8" s="6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="22">
-        <f>ABS(H$3-2)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <f>ABS(H$4-2)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <f>ABS(H$5-2)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <f>ABS(H$6-2)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <f>ABS(H$7-2)</f>
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <f>ABS(H$8-2)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>2</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="41">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="O9" s="9">
-        <v>4</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>2</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="22">
-        <f>ABS(I$3-2)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <f>ABS(I$4-2)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <f>ABS(I$5-2)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <f>ABS(I$6-2)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f>ABS(I$7-2)</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <f>ABS(I$8-2)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <f>ABS(I$9-2)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="41">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="O10" s="9">
-        <v>4</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="3"/>
-        <v>0.6</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>2</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" si="4"/>
-        <v>0.3</v>
-      </c>
       <c r="S10" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="14">
         <v>0</v>
       </c>
       <c r="V10" s="32">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B11" s="22">
         <v>0</v>
@@ -3615,50 +3572,43 @@
         <v>0</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S11" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U11" s="14">
         <v>0</v>
       </c>
       <c r="V11" s="32">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B12" s="42">
         <v>0</v>
@@ -3691,87 +3641,68 @@
         <v>0</v>
       </c>
       <c r="L12" s="45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="46">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="47">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" s="47">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
         <v>0</v>
       </c>
       <c r="R12" s="47">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S12" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" s="47">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U12" s="14">
         <v>0</v>
       </c>
       <c r="V12" s="48">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M13" s="25">
-        <f>SUM(M3:M12)</f>
-        <v>2.8000000000000003</v>
+        <v>3.5</v>
       </c>
       <c r="N13" s="26">
-        <f>SUM(N3:N12)</f>
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="P13" s="28">
-        <f>SUM(P3:P12)</f>
-        <v>9.85</v>
+        <v>12.45</v>
       </c>
       <c r="R13" s="28">
-        <f>SUM(R3:R12)</f>
-        <v>9.5000000000000018</v>
+        <v>11.5</v>
       </c>
       <c r="T13" s="28">
-        <f>SUM(T3:T12)</f>
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="V13" s="28">
-        <f>SUM(V3:V12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T15" s="29"/>
     </row>
-    <row r="17" spans="20:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="20:22" x14ac:dyDescent="0.3">
       <c r="T17" s="29"/>
       <c r="V17" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3784,27 +3715,27 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="O1" s="50" t="s">
+    <row r="1" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="50" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="51"/>
-    </row>
-    <row r="2" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="55"/>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="19">
         <v>1</v>
@@ -3871,9 +3802,9 @@
       </c>
       <c r="W2" s="15"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="21">
         <v>0</v>
@@ -3947,9 +3878,9 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="22">
         <f>ABS(C$3-2)</f>
@@ -4024,7 +3955,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -4102,7 +4033,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -4181,7 +4112,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -4261,9 +4192,9 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="22">
         <f>ABS(G$3-2)</f>
@@ -4342,9 +4273,9 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="22">
         <f>ABS(H$3-2)</f>
@@ -4424,7 +4355,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -4507,9 +4438,9 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="22">
         <f>ABS(J$3-2)</f>
@@ -4589,9 +4520,9 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="42">
         <f>ABS(K$3-2)</f>
@@ -4674,7 +4605,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M13" s="25">
         <f>SUM(M3:M12)</f>
         <v>4.5</v>
@@ -4700,10 +4631,10 @@
         <v>10.15</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="T15" s="29"/>
     </row>
-    <row r="17" spans="20:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="20:22" x14ac:dyDescent="0.3">
       <c r="T17" s="29"/>
       <c r="V17" s="29"/>
     </row>
@@ -4726,30 +4657,30 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.83203125" customWidth="1"/>
+    <col min="1" max="1" width="73.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="O1" s="50" t="s">
+    <row r="1" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="57"/>
+      <c r="S1" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="50" t="s">
+      <c r="T1" s="55"/>
+      <c r="U1" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="51"/>
-    </row>
-    <row r="2" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="55"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="19">
         <v>1</v>
@@ -4819,7 +4750,7 @@
       <c r="Y2" s="15"/>
       <c r="Z2" s="15"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
@@ -4898,7 +4829,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>15</v>
       </c>
@@ -4978,7 +4909,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
@@ -5059,7 +4990,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
@@ -5141,7 +5072,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>14</v>
       </c>
@@ -5224,9 +5155,9 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="22">
         <f>ABS(G$3-2)</f>
@@ -5308,9 +5239,9 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="22">
         <f>ABS(H$3-2)</f>
@@ -5393,7 +5324,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -5479,9 +5410,9 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="22">
         <f>ABS(J$3-2)</f>
@@ -5564,7 +5495,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
@@ -5652,7 +5583,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M13" s="25">
         <f>SUM(M3:M12)</f>
         <v>4.5</v>
@@ -5678,10 +5609,10 @@
         <v>12.150000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="T15" s="29"/>
     </row>
-    <row r="17" spans="20:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="20:22" x14ac:dyDescent="0.3">
       <c r="T17" s="29"/>
       <c r="V17" s="29"/>
     </row>
